--- a/Chapter09/Chapter 9 - Quirks and Nuances.xlsx
+++ b/Chapter09/Chapter 9 - Quirks and Nuances.xlsx
@@ -1,28 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25504"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Packt\Chapter 9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E19314-5649-464F-91A2-34A15196F2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A922CB4B-C17E-4314-A4AB-7FB20A026F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24810" yWindow="-1185" windowWidth="15375" windowHeight="7995" xr2:uid="{3AD03219-FC8E-4F49-98D4-DCA5D7E68489}"/>
+    <workbookView xWindow="19470" yWindow="-2100" windowWidth="13380" windowHeight="8850" activeTab="1" xr2:uid="{3AD03219-FC8E-4F49-98D4-DCA5D7E68489}"/>
   </bookViews>
   <sheets>
-    <sheet name="World's Largest Deserts" sheetId="8" r:id="rId1"/>
-    <sheet name="Compatibility Checker" sheetId="6" r:id="rId2"/>
+    <sheet name="Compatibility Checker" sheetId="6" r:id="rId1"/>
+    <sheet name="Double-Click Navigation" sheetId="8" r:id="rId2"/>
     <sheet name="Enter Mode Versus Edit Mode" sheetId="1" r:id="rId3"/>
     <sheet name="Excluding Chart Weekend Dates" sheetId="7" r:id="rId4"/>
     <sheet name="Sparklines" sheetId="2" r:id="rId5"/>
     <sheet name="Circular References" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="Interest" localSheetId="1">#REF!</definedName>
     <definedName name="Interest">#REF!</definedName>
+    <definedName name="Payment" localSheetId="1">#REF!</definedName>
     <definedName name="Payment">#REF!</definedName>
+    <definedName name="Principal" localSheetId="1">#REF!</definedName>
     <definedName name="Principal">#REF!</definedName>
     <definedName name="Term">#REF!</definedName>
   </definedNames>
@@ -93,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="68">
   <si>
     <t>Enter Mode Versus Edit Mode</t>
   </si>
@@ -209,94 +212,91 @@
     <t>March</t>
   </si>
   <si>
-    <t>April</t>
-  </si>
-  <si>
     <t>Excluding Chart Weekend Dates</t>
   </si>
   <si>
     <t>Work Area</t>
   </si>
   <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Cold winter</t>
+  </si>
+  <si>
+    <t>Great Basin</t>
+  </si>
+  <si>
+    <t>Iraq, Jordan, Saudi Arabia, and Syria</t>
+  </si>
+  <si>
+    <t>Subtropical</t>
+  </si>
+  <si>
+    <t>Syrian Desert</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Patagonian Desert</t>
+  </si>
+  <si>
+    <t>Botswana, Namibia, and South Africa</t>
+  </si>
+  <si>
+    <t>Kalahari Desert</t>
+  </si>
+  <si>
+    <t>China and Mongolia</t>
+  </si>
+  <si>
+    <t>Gobi Desert</t>
+  </si>
+  <si>
+    <t>Iraq, Jordan, Kuwait, Oman, Qatar, Saudi Arabia, the United Arab Emirates, and Yemen</t>
+  </si>
+  <si>
+    <t>Arabian Desert</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Great Australian</t>
+  </si>
+  <si>
+    <t>Algeria, Chad, Egypt, Eritrea, Libya, Mali, Mauritania, Morocco, Niger, the Sudan, Tunisia, and Western Sahara</t>
+  </si>
+  <si>
+    <t>Sahara Desert</t>
+  </si>
+  <si>
+    <t>Alaska, Canada, Finland, Greenland, Iceland, Jan Mayen, Norway, Russia, Svalbard, and Sweden</t>
+  </si>
+  <si>
+    <t>Polar ice and tundra</t>
+  </si>
+  <si>
+    <t>Arctic Desert</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Antarctic Desert</t>
+  </si>
+  <si>
+    <t>Nation(s)</t>
+  </si>
+  <si>
+    <t>Square Miles</t>
+  </si>
+  <si>
+    <t>Square Kilometers</t>
+  </si>
+  <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>Nation(s)</t>
-  </si>
-  <si>
-    <t>Antarctic Desert</t>
-  </si>
-  <si>
-    <t>Polar ice and tundra</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Arctic Desert</t>
-  </si>
-  <si>
-    <t>Alaska, Canada, Finland, Greenland, Iceland, Jan Mayen, Norway, Russia, Svalbard, and Sweden</t>
-  </si>
-  <si>
-    <t>Sahara Desert</t>
-  </si>
-  <si>
-    <t>Subtropical</t>
-  </si>
-  <si>
-    <t>Algeria, Chad, Egypt, Eritrea, Libya, Mali, Mauritania, Morocco, Niger, the Sudan, Tunisia, and Western Sahara</t>
-  </si>
-  <si>
-    <t>Great Australian</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Arabian Desert</t>
-  </si>
-  <si>
-    <t>Iraq, Jordan, Kuwait, Oman, Qatar, Saudi Arabia, the United Arab Emirates, and Yemen</t>
-  </si>
-  <si>
-    <t>Gobi Desert</t>
-  </si>
-  <si>
-    <t>Cold winter</t>
-  </si>
-  <si>
-    <t>China and Mongolia</t>
-  </si>
-  <si>
-    <t>Kalahari Desert</t>
-  </si>
-  <si>
-    <t>Botswana, Namibia, and South Africa</t>
-  </si>
-  <si>
-    <t>Patagonian Desert</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Syrian Desert</t>
-  </si>
-  <si>
-    <t>Iraq, Jordan, Saudi Arabia, and Syria</t>
-  </si>
-  <si>
-    <t>Great Basin</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>Square Kilometers</t>
-  </si>
-  <si>
-    <t>Square Meters</t>
   </si>
   <si>
     <t>World's Largest Deserts</t>
@@ -498,7 +498,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -516,7 +516,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -530,31 +529,42 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -652,35 +662,29 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Enter Mode Versus Edit Mode'!$C$3:$E$3</c:f>
+              <c:f>'Enter Mode Versus Edit Mode'!$C$3:$D$3</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>January</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>February</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>March</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Enter Mode Versus Edit Mode'!$C$4:$E$4</c:f>
+              <c:f>'Enter Mode Versus Edit Mode'!$C$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -717,35 +721,29 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Enter Mode Versus Edit Mode'!$C$3:$E$3</c:f>
+              <c:f>'Enter Mode Versus Edit Mode'!$C$3:$D$3</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>January</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>February</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>March</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Enter Mode Versus Edit Mode'!$C$5:$E$5</c:f>
+              <c:f>'Enter Mode Versus Edit Mode'!$C$5:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2367,16 +2365,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2741,10 +2739,163 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7620AB1F-732A-45D0-98E3-68032387C296}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8408DCB7-B7AE-4540-9B3C-A066CBDFC5A5}">
+  <dimension ref="B1:K11"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="18" cm="1">
+        <f t="array" ref="D4">_xlfn.LAMBDA(_xlpm.input1,_xlpm.input2,_xlpm.input1+_xlpm.input2)(1,2)</f>
+        <v>3</v>
+      </c>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="18">
+        <f>_xlfn.LET(_xlpm.input1,1,_xlpm.input2,2,_xlpm.input1+_xlpm.input2)</f>
+        <v>3</v>
+      </c>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="18" t="str">
+        <f>_xlfn.TEXTJOIN(": ",TRUE,B6,C6)</f>
+        <v>Excel 2019: TEXTJOIN</v>
+      </c>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="18" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B8,B3:C9,2,0),"Version not found")</f>
+        <v>IFNA</v>
+      </c>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="18">
+        <f>NETWORKDAYS.INTL(DATE(2024,1,1),DATE(2024,12,31))</f>
+        <v>262</v>
+      </c>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B27FFC-A4E3-4EFF-A0B9-ECE4F4F9276C}">
   <dimension ref="B1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2758,202 +2909,202 @@
   <sheetData>
     <row r="1" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="20"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="29">
+        <v>14200000</v>
+      </c>
+      <c r="E4" s="29">
+        <v>5482651</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="29">
+        <v>13900000</v>
+      </c>
+      <c r="E5" s="29">
+        <v>5366820</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B6" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="29">
+        <v>9200000</v>
+      </c>
+      <c r="E6" s="29">
+        <v>3552140</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="29">
+        <v>2700000</v>
+      </c>
+      <c r="E7" s="29">
+        <v>1042476</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="29">
+        <v>2330000</v>
+      </c>
+      <c r="E8" s="29">
+        <v>899618</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="23" t="s">
+      <c r="D9" s="29">
+        <v>1295000</v>
+      </c>
+      <c r="E9" s="29">
+        <v>500002</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="29">
+        <v>900000</v>
+      </c>
+      <c r="E10" s="29">
+        <v>347492</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="29">
+        <v>673000</v>
+      </c>
+      <c r="E11" s="29">
+        <v>259847</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="29">
+        <v>500000</v>
+      </c>
+      <c r="E12" s="29">
+        <v>193051</v>
+      </c>
+      <c r="F12" s="28" t="s">
         <v>43</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="25">
-        <v>14200000</v>
-      </c>
-      <c r="E4" s="25">
-        <v>5482651</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="25">
-        <v>13900000</v>
-      </c>
-      <c r="E5" s="25">
-        <v>5366820</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="25">
-        <v>9200000</v>
-      </c>
-      <c r="E6" s="25">
-        <v>3552140</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="25">
-        <v>2700000</v>
-      </c>
-      <c r="E7" s="25">
-        <v>1042476</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="25">
-        <v>2330000</v>
-      </c>
-      <c r="E8" s="25">
-        <v>899618</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="25">
-        <v>1295000</v>
-      </c>
-      <c r="E9" s="25">
-        <v>500002</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="25">
-        <v>900000</v>
-      </c>
-      <c r="E10" s="25">
-        <v>347492</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="25">
-        <v>673000</v>
-      </c>
-      <c r="E11" s="25">
-        <v>259847</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="25">
-        <v>500000</v>
-      </c>
-      <c r="E12" s="25">
-        <v>193051</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="29">
+        <v>42</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="25">
         <v>492098</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="25">
         <v>190000</v>
       </c>
-      <c r="F13" s="30" t="s">
-        <v>65</v>
+      <c r="F13" s="24" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2961,163 +3112,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8408DCB7-B7AE-4540-9B3C-A066CBDFC5A5}">
-  <dimension ref="B1:K11"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="6"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="19" cm="1">
-        <f t="array" ref="D4">_xlfn.LAMBDA(_xlpm.input1,_xlpm.input2,_xlpm.input1+_xlpm.input2)(1,2)</f>
-        <v>3</v>
-      </c>
-      <c r="K4" s="6"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="19">
-        <f>_xlfn.LET(_xlpm.input1,1,_xlpm.input2,2,_xlpm.input1+_xlpm.input2)</f>
-        <v>3</v>
-      </c>
-      <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="19" t="str">
-        <f>_xlfn.TEXTJOIN(": ",TRUE,B6,C6)</f>
-        <v>Excel 2019: TEXTJOIN</v>
-      </c>
-      <c r="K6" s="6"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="19" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B8,B3:C9,2,0),"Version not found")</f>
-        <v>IFNA</v>
-      </c>
-      <c r="K8" s="6"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="19">
-        <f>NETWORKDAYS.INTL(DATE(2024,1,1),DATE(2024,12,31))</f>
-        <v>262</v>
-      </c>
-      <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
-      <c r="K10" s="6"/>
-    </row>
-    <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C4D76E-5269-4DD0-8FE5-B5C9D63C9617}">
-  <dimension ref="B1:I6"/>
+  <dimension ref="B1:N12"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3125,29 +3125,28 @@
     <col min="1" max="1" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="35"/>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="5"/>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
@@ -3160,12 +3159,10 @@
       <c r="E3" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F3" s="13"/>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
@@ -3178,12 +3175,9 @@
       <c r="E4">
         <v>500</v>
       </c>
-      <c r="F4">
-        <v>700</v>
-      </c>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
@@ -3196,22 +3190,51 @@
       <c r="E5">
         <v>600</v>
       </c>
-      <c r="F5">
-        <v>800</v>
-      </c>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:N1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -3222,9 +3245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{265666DE-0B89-4076-94E6-0CCAE70F66B6}">
   <dimension ref="B1:L13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3234,7 +3255,7 @@
   <sheetData>
     <row r="1" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -3245,14 +3266,14 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="20"/>
+      <c r="L1" s="19"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
       <c r="L2" s="6"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="21">
+      <c r="B3" s="20">
         <v>45292</v>
       </c>
       <c r="C3">
@@ -3261,7 +3282,7 @@
       <c r="L3" s="6"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="21">
+      <c r="B4" s="20">
         <v>45293</v>
       </c>
       <c r="C4">
@@ -3270,7 +3291,7 @@
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="21">
+      <c r="B5" s="20">
         <v>45294</v>
       </c>
       <c r="C5">
@@ -3279,7 +3300,7 @@
       <c r="L5" s="6"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="21">
+      <c r="B6" s="20">
         <v>45295</v>
       </c>
       <c r="C6">
@@ -3288,7 +3309,7 @@
       <c r="L6" s="6"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="21">
+      <c r="B7" s="20">
         <v>45296</v>
       </c>
       <c r="C7">
@@ -3297,7 +3318,7 @@
       <c r="L7" s="6"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="21">
+      <c r="B8" s="20">
         <v>45299</v>
       </c>
       <c r="C8">
@@ -3306,7 +3327,7 @@
       <c r="L8" s="6"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="21">
+      <c r="B9" s="20">
         <v>45300</v>
       </c>
       <c r="C9">
@@ -3315,7 +3336,7 @@
       <c r="L9" s="6"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="21">
+      <c r="B10" s="20">
         <v>45301</v>
       </c>
       <c r="C10">
@@ -3324,7 +3345,7 @@
       <c r="L10" s="6"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="21">
+      <c r="B11" s="20">
         <v>45302</v>
       </c>
       <c r="C11">
@@ -3333,7 +3354,7 @@
       <c r="L11" s="6"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="21">
+      <c r="B12" s="20">
         <v>45303</v>
       </c>
       <c r="C12">
@@ -3365,7 +3386,7 @@
   <dimension ref="B1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="Q10" sqref="Q10:Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3413,7 +3434,7 @@
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>12</v>
@@ -3434,7 +3455,7 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="22"/>
+      <c r="E4" s="21"/>
       <c r="F4">
         <v>100</v>
       </c>
@@ -3454,7 +3475,7 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="22"/>
+      <c r="E5" s="21"/>
       <c r="F5">
         <v>100</v>
       </c>
@@ -3474,7 +3495,7 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="22"/>
+      <c r="E6" s="21"/>
       <c r="F6">
         <v>50</v>
       </c>
@@ -3494,7 +3515,7 @@
       <c r="C7" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="22"/>
+      <c r="E7" s="21"/>
       <c r="L7" s="6"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
@@ -3502,7 +3523,7 @@
       <c r="C8" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="22"/>
+      <c r="E8" s="21"/>
       <c r="L8" s="6"/>
     </row>
     <row r="9" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3602,13 +3623,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A238EB6-E8E1-4BF3-99E4-DC2C614DD6D2}">
   <dimension ref="B1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" customWidth="1"/>
   </cols>
@@ -3648,10 +3667,7 @@
       <c r="I4" s="6"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="14">
-        <f ca="1">SUM(B3:B5)</f>
-        <v>2070000</v>
-      </c>
+      <c r="B5" s="14"/>
       <c r="C5" s="11" t="s">
         <v>17</v>
       </c>
@@ -3669,7 +3685,7 @@
       <c r="B8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="15">
         <v>100000000</v>
       </c>
       <c r="I8" s="6"/>
@@ -3678,10 +3694,10 @@
       <c r="B9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="23">
         <v>0.03</v>
       </c>
-      <c r="D9" s="16"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="11" t="s">
         <v>21</v>
       </c>
@@ -3691,7 +3707,7 @@
       <c r="B10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="15">
         <f>SUM(D8:D9)</f>
         <v>100000000</v>
       </c>
@@ -3709,5 +3725,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Chapter09/Chapter 9 - Quirks and Nuances.xlsx
+++ b/Chapter09/Chapter 9 - Quirks and Nuances.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25504"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25522"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Packt\Chapter 9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A922CB4B-C17E-4314-A4AB-7FB20A026F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0A5D58-B324-4255-9B9E-1CD90E8D9EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19470" yWindow="-2100" windowWidth="13380" windowHeight="8850" activeTab="1" xr2:uid="{3AD03219-FC8E-4F49-98D4-DCA5D7E68489}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" firstSheet="3" activeTab="3" xr2:uid="{3AD03219-FC8E-4F49-98D4-DCA5D7E68489}"/>
   </bookViews>
   <sheets>
     <sheet name="Compatibility Checker" sheetId="6" r:id="rId1"/>
@@ -1110,7 +1110,7 @@
         <c:axId val="598821920"/>
         <c:axId val="598822576"/>
       </c:barChart>
-      <c:catAx>
+      <c:dateAx>
         <c:axId val="598821920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -1156,11 +1156,10 @@
         </c:txPr>
         <c:crossAx val="598822576"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="0"/>
-        <c:lblAlgn val="ctr"/>
+        <c:auto val="1"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
         <c:axId val="598822576"/>
         <c:scaling>
@@ -2893,7 +2892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B27FFC-A4E3-4EFF-A0B9-ECE4F4F9276C}">
   <dimension ref="B1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -3116,7 +3115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C4D76E-5269-4DD0-8FE5-B5C9D63C9617}">
   <dimension ref="B1:N12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -3245,7 +3244,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{265666DE-0B89-4076-94E6-0CCAE70F66B6}">
   <dimension ref="B1:L13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3545,7 +3546,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{892548E5-B8E3-43DB-8916-28E289192FE3}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" displayXAxis="1" xr2:uid="{911CD80B-C7D0-4CD7-8122-9B9CCEECDDDF}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -3556,12 +3557,24 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Enter Mode Versus Edit Mode'!C4:F4</xm:f>
-              <xm:sqref>B7</xm:sqref>
+              <xm:f>Sparklines!F4:I4</xm:f>
+              <xm:sqref>B4</xm:sqref>
             </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{2131C42D-C8DA-4E28-8DC4-2C4B493B3E30}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Enter Mode Versus Edit Mode'!C5:F5</xm:f>
-              <xm:sqref>B8</xm:sqref>
+              <xm:f>Sparklines!F5:I5</xm:f>
+              <xm:sqref>B5</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -3581,7 +3594,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{2131C42D-C8DA-4E28-8DC4-2C4B493B3E30}">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{892548E5-B8E3-43DB-8916-28E289192FE3}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -3592,24 +3605,12 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Sparklines!F5:I5</xm:f>
-              <xm:sqref>B5</xm:sqref>
+              <xm:f>'Enter Mode Versus Edit Mode'!C4:F4</xm:f>
+              <xm:sqref>B7</xm:sqref>
             </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" displayXAxis="1" xr2:uid="{911CD80B-C7D0-4CD7-8122-9B9CCEECDDDF}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Sparklines!F4:I4</xm:f>
-              <xm:sqref>B4</xm:sqref>
+              <xm:f>'Enter Mode Versus Edit Mode'!C5:F5</xm:f>
+              <xm:sqref>B8</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
